--- a/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.25_k_0.05/omp_GAUSSIAN_40dB/omp_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A205"/>
+  <dimension ref="A1:A86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,601 +865,6 @@
         <v>170.1937674585492</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>168.6435100917265</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>167.1091638088512</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>165.4108619342691</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>163.8945972678978</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>162.3154161521818</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>160.9387146651717</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>159.5581782562914</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>158.0553134196303</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>156.6657685100357</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>155.1128628259347</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>153.8610246839968</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>152.5636172757696</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>151.2671268670147</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>149.9342515122524</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>148.5609628697549</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>147.2797906261886</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>146.0117176688296</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>144.7082225786122</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>143.6274279299805</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>142.4225523970226</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>141.259994239909</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>140.1731162275382</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>138.9485645000165</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>137.8079384516033</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>136.6603810317888</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>135.4694153194197</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>134.304966704394</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>133.1310362763792</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>131.9536905438561</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>130.7948530927045</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>129.5644878903204</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>128.2881612219518</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>126.9565716304138</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>125.7885475609206</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>124.6848495837346</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>123.5444641397045</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122.4355493965944</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>121.2173270454427</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>120.1068497347767</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>119.0866131442788</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>118.0188045815397</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>117.0744970739601</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>115.9927299608173</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>114.8400013145208</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>113.8789248800098</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>112.7411644833502</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>111.7434714010307</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>110.7337955986527</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>109.8263844365003</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>108.9775771177299</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>108.0537867014139</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>107.1725155204209</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>106.3206229079967</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>105.5097781712684</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>104.7014073896144</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>103.8932821322009</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>103.0547763381709</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>102.3098000175482</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>101.5633157255029</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>100.8972915585392</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>100.1859175984789</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>99.39309405439522</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>98.59392412057197</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>97.88909165943738</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>97.20193656940629</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>96.46007589857039</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>95.69939372075207</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>95.04822932320988</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>94.43783427097591</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>93.77697646366946</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>93.02679152114622</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>92.4192459743777</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>91.71430276702387</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>91.09289076169497</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>90.53815743513611</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>89.94637886527448</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>89.44231636310771</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>88.88625472371267</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>88.25153574889345</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>87.63912366591421</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>87.07485060285406</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>86.51316259707313</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>85.99586959735738</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>85.40708156203259</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>84.89116606009053</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>84.40891873841501</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>83.80239092717215</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>83.27882130681533</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>82.68252077260678</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>82.16300888162648</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>81.64739699610826</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>81.05362724283762</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>80.53140174253068</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>80.06671450835614</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>79.57215196789357</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>79.02856242584416</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>78.50806638331937</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>78.05589941963709</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>77.59882522162529</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>77.11587622955528</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>76.62349746503547</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>76.13647920145532</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>75.65342516411847</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>75.20569169959079</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>74.73391703669662</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>74.2537513894887</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>73.76193575808324</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>73.34758363916417</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>72.88130520838594</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>72.4028890416792</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>71.89722026457194</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>71.44183927241984</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>70.9841254377132</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>70.59669895383945</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>70.2053098830672</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>69.76106274244907</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>69.28918939618615</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>68.89580665506523</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>68.50272826513681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
